--- a/excel/s_skill.xlsx
+++ b/excel/s_skill.xlsx
@@ -63,10 +63,21 @@
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>作者:</t>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
         </r>
         <r>
           <rPr>
@@ -511,222 +522,84 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-攻击距离</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>R</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">，是玩家属性；
-技能确定攻击范围；
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0//</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>小圆，施法者为圆心，半径为</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>R</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>的大圆的内部的圆，且小圆半径为</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>R/3</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">；
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1//</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>直线，施法者为圆心，半径为</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>R</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">的大圆的半径；（其实应该是个矩形，但因为宽度很窄，忽略不计）
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2//</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>扇形，施法者为圆心，半径为</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>R</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>的大圆的半径，角度为</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>45°</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">；
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>3//</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>大圆，施法者为圆心，半径为</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>R</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">的大圆；
-</t>
+实际仇恨</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>=</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>仇恨系数</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>*</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>实际伤害
+实际伤害</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>=</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>技能伤害</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>防御</t>
         </r>
       </text>
     </comment>
@@ -752,126 +625,28 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-不是枚举类型，可加；
-例如：</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>3=1+2=</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>自身</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>+</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">友方除自身；
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1//</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">自身
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2//</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">友方除了自身
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>4//</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">敌方
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>8//</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">中立
+攻击距离</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>R</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">，是玩家属性；
+技能确定攻击范围；
+填技能圆的大小；
 </t>
         </r>
       </text>
@@ -898,27 +673,127 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-受技能影响的最大目标数；
-最小为</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>；</t>
+不是枚举类型，可加；
+例如：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3=1+2=</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>自身</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">友方除自身；
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1//</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">自身
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2//</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">友方除了自身
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>4//</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">敌方
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>8//</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">中立
+</t>
         </r>
       </text>
     </comment>
@@ -944,125 +819,27 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-范围内选择多个目标的方式
-如果是范围内随机的话，注意随机方法，否则配合数值递增或者递减将会表现不好，见技能</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>21220</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">；
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0//</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">范围内随机
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1//</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>琏（不弹回，开发</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">期不做）
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2//</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>弹射（能回，开发</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>期不做）</t>
+受技能影响的最大目标数；
+最小为</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>；</t>
         </r>
       </text>
     </comment>
@@ -1088,6 +865,150 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+范围内选择多个目标的方式
+如果是范围内随机的话，注意随机方法，否则配合数值递增或者递减将会表现不好，见技能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>21220</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">；
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0//</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">范围内随机
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1//</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>琏（不弹回，开发</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">期不做）
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2//</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>弹射（能回，开发</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>期不做）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 吟唱在吟唱结束时视为施法成功；
 引导视为多次吟唱；
 吟唱</t>
@@ -1192,7 +1113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0">
+    <comment ref="L2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1280,7 +1201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0">
+    <comment ref="M2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1326,7 +1247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0">
+    <comment ref="N2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1383,7 +1304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0">
+    <comment ref="O2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1434,52 +1355,6 @@
             <charset val="134"/>
           </rPr>
           <t>整数</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-策划处理：百分比则填</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0~1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>的小数，整数就填整数
-程序处理：把所填值按之前的方式处理</t>
         </r>
       </text>
     </comment>
@@ -1505,65 +1380,27 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-技能使用后，消耗全部这一</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ID</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>的</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>buff</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">，无论叠加多少层；
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>为不消耗</t>
+策划处理：百分比则填</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0~1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>的小数，整数就填整数
+程序处理：把所填值按之前的方式处理</t>
         </r>
       </text>
     </comment>
@@ -1589,8 +1426,65 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-使用此技能时，额外增加的暴击率；
-百分比；</t>
+技能使用后，消耗全部这一</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ID</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>的</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>buff</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">，无论叠加多少层；
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>为不消耗</t>
         </r>
       </text>
     </comment>
@@ -1616,144 +1510,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-技能伤害值</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>=</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>伤害系数</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>*</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>攻击力</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>+</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>附加伤害</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>+</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>目标当前血量</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>*</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>目标当前血量系数</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>+</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>目标剩余血量</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>*</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>目标剩余血量系数</t>
+使用此技能时，额外增加的暴击率；
+百分比；</t>
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0">
+    <comment ref="S2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1775,67 +1537,140 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-选择目标后，数值分配方式
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0//</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">每个人受这些上海
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1//</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">伤害均摊每人
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2//</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>伤害受传递变化</t>
+技能伤害值</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>=</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>伤害系数</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>*</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>攻击力</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>附加伤害</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>目标当前血量</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>*</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>目标当前血量系数</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>目标剩余血量</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>*</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>目标剩余血量系数</t>
         </r>
       </text>
     </comment>
@@ -1861,6 +1696,92 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+选择目标后，数值分配方式
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0//</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">每个人受这些上海
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1//</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">伤害均摊每人
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2//</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>伤害受传递变化</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 数值分配为
 </t>
         </r>
@@ -1897,7 +1818,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0">
+    <comment ref="Y2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2193,7 +2114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
   <si>
     <t>技能ID</t>
   </si>
@@ -2274,10 +2195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TargetNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2383,6 +2300,82 @@
   </si>
   <si>
     <t>BuffId:38;Target:1</t>
+  </si>
+  <si>
+    <t>BuffId:50;Target:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffId:51;Target:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffId:52;Target:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffId:53;Target:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffId:54;Target:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffId:55;Target:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffId:56;Target:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffId:57;Target:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffId:58;Target:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffId:59;Target:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffId:60;Target:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffId:61;Target:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffId:62;Target:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffId:63;Target:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffId:64;Target:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffId:65;Target:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仇恨系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HateFactor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2757,10 +2750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X26"/>
+  <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2769,26 +2762,27 @@
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29.75" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2804,213 +2798,222 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="S2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>500</v>
+      </c>
+      <c r="T3">
+        <v>10</v>
+      </c>
+      <c r="U3">
+        <v>400</v>
+      </c>
+      <c r="V3">
+        <v>300</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>500</v>
-      </c>
-      <c r="S3">
-        <v>10</v>
-      </c>
-      <c r="T3">
-        <v>400</v>
-      </c>
-      <c r="U3">
-        <v>300</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:25">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -3026,23 +3029,23 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>100</v>
+      </c>
+      <c r="H4">
         <v>4</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -3063,28 +3066,31 @@
         <v>0</v>
       </c>
       <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
         <v>500</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>10</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>400</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>300</v>
       </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
       <c r="W4">
         <v>0</v>
       </c>
-      <c r="X4" t="s">
-        <v>49</v>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:25">
       <c r="A5">
         <v>2001</v>
       </c>
@@ -3100,23 +3106,23 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>100</v>
+      </c>
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>3</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -3137,28 +3143,31 @@
         <v>0</v>
       </c>
       <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
         <v>500</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>10</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>400</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>300</v>
       </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
       <c r="W5">
         <v>0</v>
       </c>
-      <c r="X5" s="1" t="s">
-        <v>49</v>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:25">
       <c r="A6">
         <v>3001</v>
       </c>
@@ -3174,23 +3183,23 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>100</v>
+      </c>
+      <c r="H6">
         <v>4</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -3211,28 +3220,31 @@
         <v>0</v>
       </c>
       <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>500</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>10</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>400</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>300</v>
       </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
       <c r="W6">
         <v>0</v>
       </c>
-      <c r="X6" s="1" t="s">
-        <v>49</v>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:25">
       <c r="A7">
         <v>4001</v>
       </c>
@@ -3248,23 +3260,23 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>100</v>
+      </c>
+      <c r="H7">
         <v>4</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>3</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -3285,28 +3297,31 @@
         <v>0</v>
       </c>
       <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
         <v>500</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>10</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>400</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>300</v>
       </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
       <c r="W7">
         <v>0</v>
       </c>
-      <c r="X7" s="1" t="s">
-        <v>49</v>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:25">
       <c r="A8">
         <v>1011</v>
       </c>
@@ -3322,23 +3337,23 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>100</v>
+      </c>
+      <c r="H8">
         <v>4</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>3</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -3359,28 +3374,31 @@
         <v>0</v>
       </c>
       <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
         <v>500</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>10</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>400</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>300</v>
       </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
       <c r="W8">
         <v>0</v>
       </c>
-      <c r="X8" s="1" t="s">
-        <v>49</v>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:25">
       <c r="A9">
         <v>1021</v>
       </c>
@@ -3396,23 +3414,23 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>100</v>
+      </c>
+      <c r="H9">
         <v>4</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>3</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -3433,28 +3451,31 @@
         <v>0</v>
       </c>
       <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
         <v>500</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>10</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>400</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>300</v>
       </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
       <c r="W9">
         <v>0</v>
       </c>
-      <c r="X9" s="1" t="s">
-        <v>49</v>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:25">
       <c r="A10">
         <v>1031</v>
       </c>
@@ -3470,23 +3491,23 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>100</v>
+      </c>
+      <c r="H10">
         <v>4</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>3</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -3507,28 +3528,31 @@
         <v>0</v>
       </c>
       <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
         <v>500</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>10</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>400</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>300</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
       <c r="W10">
         <v>0</v>
       </c>
-      <c r="X10" s="1" t="s">
-        <v>49</v>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:25">
       <c r="A11">
         <v>1041</v>
       </c>
@@ -3544,23 +3568,23 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
         <v>3</v>
       </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -3581,28 +3605,31 @@
         <v>0</v>
       </c>
       <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
         <v>500</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>10</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>400</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>300</v>
       </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
       <c r="W11">
         <v>0</v>
       </c>
-      <c r="X11" s="1" t="s">
-        <v>49</v>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:25">
       <c r="A12">
         <v>1051</v>
       </c>
@@ -3618,29 +3645,29 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>100</v>
+      </c>
+      <c r="H12">
         <v>4</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>3</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
       <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>2</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>100</v>
       </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
       <c r="M12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -3655,28 +3682,31 @@
         <v>0</v>
       </c>
       <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
         <v>500</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>10</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>400</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>300</v>
       </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
       <c r="W12">
         <v>0</v>
       </c>
-      <c r="X12" s="1" t="s">
-        <v>49</v>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:25">
       <c r="A13">
         <v>1061</v>
       </c>
@@ -3692,30 +3722,30 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>100</v>
+      </c>
+      <c r="H13">
         <v>4</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>3</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
       <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>300</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>3</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
       <c r="N13">
         <v>0</v>
       </c>
@@ -3729,28 +3759,31 @@
         <v>0</v>
       </c>
       <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
         <v>500</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>10</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>400</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>300</v>
       </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
       <c r="W13">
         <v>0</v>
       </c>
-      <c r="X13" s="1" t="s">
-        <v>49</v>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:25">
       <c r="A14">
         <v>1071</v>
       </c>
@@ -3766,65 +3799,68 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>100</v>
+      </c>
+      <c r="H14">
         <v>4</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>3</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
         <v>500</v>
       </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
         <v>500</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>10</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>400</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>300</v>
       </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
       <c r="W14">
         <v>0</v>
       </c>
-      <c r="X14" s="1" t="s">
-        <v>49</v>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:25">
       <c r="A15">
         <v>1081</v>
       </c>
@@ -3840,65 +3876,68 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>100</v>
+      </c>
+      <c r="H15">
         <v>4</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>3</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>1</v>
       </c>
       <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
         <v>50</v>
       </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
         <v>500</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>10</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>400</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>300</v>
       </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
       <c r="W15">
         <v>0</v>
       </c>
-      <c r="X15" s="1" t="s">
-        <v>49</v>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:25">
       <c r="A16">
         <v>1091</v>
       </c>
@@ -3914,23 +3953,23 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>100</v>
+      </c>
+      <c r="H16">
         <v>4</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>3</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -3948,31 +3987,34 @@
         <v>0</v>
       </c>
       <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>200</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>500</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>10</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>400</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>300</v>
       </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
       <c r="W16">
         <v>0</v>
       </c>
-      <c r="X16" s="1" t="s">
-        <v>49</v>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:25">
       <c r="A17">
         <v>1101</v>
       </c>
@@ -3988,23 +4030,23 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>100</v>
+      </c>
+      <c r="H17">
         <v>4</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>3</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -4025,28 +4067,31 @@
         <v>0</v>
       </c>
       <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
         <v>500</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>10</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>400</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>300</v>
       </c>
-      <c r="V17">
-        <v>1</v>
-      </c>
       <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>49</v>
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:25">
       <c r="A18">
         <v>1111</v>
       </c>
@@ -4062,23 +4107,23 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>100</v>
+      </c>
+      <c r="H18">
         <v>4</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>3</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -4099,28 +4144,31 @@
         <v>0</v>
       </c>
       <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
         <v>500</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>10</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>400</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>300</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>2</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>20</v>
       </c>
-      <c r="X18" s="1" t="s">
-        <v>49</v>
+      <c r="Y18" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:25">
       <c r="A19">
         <v>1121</v>
       </c>
@@ -4136,23 +4184,23 @@
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>100</v>
+      </c>
+      <c r="H19">
         <v>4</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>3</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -4173,28 +4221,31 @@
         <v>0</v>
       </c>
       <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
         <v>500</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>10</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>400</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>300</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>2</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>-20</v>
       </c>
-      <c r="X19" s="1" t="s">
-        <v>49</v>
+      <c r="Y19" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:25">
       <c r="A20">
         <v>1131</v>
       </c>
@@ -4210,23 +4261,23 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>100</v>
+      </c>
+      <c r="H20">
         <v>4</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>3</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -4247,28 +4298,31 @@
         <v>0</v>
       </c>
       <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
         <v>500</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>10</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>400</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>300</v>
       </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
       <c r="W20">
         <v>0</v>
       </c>
-      <c r="X20" s="1" t="s">
-        <v>50</v>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:25">
       <c r="A21">
         <v>1141</v>
       </c>
@@ -4284,23 +4338,23 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>100</v>
+      </c>
+      <c r="H21">
         <v>4</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>3</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -4321,28 +4375,31 @@
         <v>0</v>
       </c>
       <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
         <v>500</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>10</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>400</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>300</v>
       </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
       <c r="W21">
         <v>0</v>
       </c>
-      <c r="X21" s="1" t="s">
-        <v>51</v>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:25">
       <c r="A22">
         <v>1151</v>
       </c>
@@ -4358,23 +4415,23 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>100</v>
+      </c>
+      <c r="H22">
         <v>4</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>3</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -4389,34 +4446,37 @@
         <v>0</v>
       </c>
       <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>31</v>
       </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
       <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
         <v>500</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>10</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>400</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>300</v>
       </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
       <c r="W22">
         <v>0</v>
       </c>
-      <c r="X22" s="1" t="s">
-        <v>49</v>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:25">
       <c r="A23">
         <v>1161</v>
       </c>
@@ -4432,23 +4492,23 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>100</v>
+      </c>
+      <c r="H23">
         <v>4</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>3</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -4469,28 +4529,31 @@
         <v>0</v>
       </c>
       <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
         <v>500</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>10</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>400</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>300</v>
       </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
       <c r="W23">
         <v>0</v>
       </c>
-      <c r="X23" s="1" t="s">
-        <v>52</v>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:25">
       <c r="A24">
         <v>1171</v>
       </c>
@@ -4506,23 +4569,23 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>100</v>
+      </c>
+      <c r="H24">
         <v>4</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>3</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -4543,28 +4606,31 @@
         <v>0</v>
       </c>
       <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
         <v>500</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>10</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>400</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>300</v>
       </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
       <c r="W24">
         <v>0</v>
       </c>
-      <c r="X24" s="1" t="s">
-        <v>53</v>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:25">
       <c r="A25">
         <v>1181</v>
       </c>
@@ -4580,23 +4646,23 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>100</v>
+      </c>
+      <c r="H25">
         <v>4</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>3</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -4617,28 +4683,31 @@
         <v>0</v>
       </c>
       <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>500</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>10</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>400</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>300</v>
       </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
       <c r="W25">
         <v>0</v>
       </c>
-      <c r="X25" s="1" t="s">
-        <v>54</v>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:25">
       <c r="A26">
         <v>1191</v>
       </c>
@@ -4654,23 +4723,23 @@
       <c r="E26">
         <v>0</v>
       </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>100</v>
+      </c>
+      <c r="H26">
         <v>4</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>3</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -4685,31 +4754,1273 @@
         <v>0</v>
       </c>
       <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>31</v>
       </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
       <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
         <v>500</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>10</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>400</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>300</v>
       </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
       <c r="W26">
         <v>0</v>
       </c>
-      <c r="X26" s="1" t="s">
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27">
+        <v>5000</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>50</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>10</v>
+      </c>
+      <c r="T27" s="1">
+        <v>10</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="1" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28">
+        <v>5001</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5001</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>50</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0</v>
+      </c>
+      <c r="S28" s="1">
+        <v>10</v>
+      </c>
+      <c r="T28" s="1">
+        <v>10</v>
+      </c>
+      <c r="U28" s="1">
+        <v>0</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29">
+        <v>5002</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>5002</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>50</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0</v>
+      </c>
+      <c r="S29" s="1">
+        <v>10</v>
+      </c>
+      <c r="T29" s="1">
+        <v>10</v>
+      </c>
+      <c r="U29" s="1">
+        <v>0</v>
+      </c>
+      <c r="V29" s="1">
+        <v>0</v>
+      </c>
+      <c r="W29" s="1">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" s="1">
+        <v>5003</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5003</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>50</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0</v>
+      </c>
+      <c r="S30" s="1">
+        <v>10</v>
+      </c>
+      <c r="T30" s="1">
+        <v>10</v>
+      </c>
+      <c r="U30" s="1">
+        <v>0</v>
+      </c>
+      <c r="V30" s="1">
+        <v>0</v>
+      </c>
+      <c r="W30" s="1">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="A31" s="1">
+        <v>5004</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>5004</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>50</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1">
+        <v>0</v>
+      </c>
+      <c r="S31" s="1">
+        <v>10</v>
+      </c>
+      <c r="T31" s="1">
+        <v>10</v>
+      </c>
+      <c r="U31" s="1">
+        <v>0</v>
+      </c>
+      <c r="V31" s="1">
+        <v>0</v>
+      </c>
+      <c r="W31" s="1">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="A32" s="1">
+        <v>5005</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>5005</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>50</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0</v>
+      </c>
+      <c r="R32" s="1">
+        <v>0</v>
+      </c>
+      <c r="S32" s="1">
+        <v>10</v>
+      </c>
+      <c r="T32" s="1">
+        <v>10</v>
+      </c>
+      <c r="U32" s="1">
+        <v>0</v>
+      </c>
+      <c r="V32" s="1">
+        <v>0</v>
+      </c>
+      <c r="W32" s="1">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
+      <c r="A33" s="1">
+        <v>5006</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>5006</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>50</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0</v>
+      </c>
+      <c r="S33" s="1">
+        <v>10</v>
+      </c>
+      <c r="T33" s="1">
+        <v>10</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1">
+        <v>0</v>
+      </c>
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
+      <c r="A34" s="1">
+        <v>5007</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>5007</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>50</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0</v>
+      </c>
+      <c r="S34" s="1">
+        <v>10</v>
+      </c>
+      <c r="T34" s="1">
+        <v>10</v>
+      </c>
+      <c r="U34" s="1">
+        <v>0</v>
+      </c>
+      <c r="V34" s="1">
+        <v>0</v>
+      </c>
+      <c r="W34" s="1">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
+      <c r="A35" s="1">
+        <v>5008</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>5008</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>50</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0</v>
+      </c>
+      <c r="R35" s="1">
+        <v>0</v>
+      </c>
+      <c r="S35" s="1">
+        <v>10</v>
+      </c>
+      <c r="T35" s="1">
+        <v>10</v>
+      </c>
+      <c r="U35" s="1">
+        <v>0</v>
+      </c>
+      <c r="V35" s="1">
+        <v>0</v>
+      </c>
+      <c r="W35" s="1">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
+      <c r="A36">
+        <v>5009</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <f>A36</f>
+        <v>5009</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>50</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
+      <c r="A37" s="1">
+        <v>5010</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" ref="C37:C42" si="0">A37</f>
+        <v>5010</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>50</v>
+      </c>
+      <c r="H37" s="1">
+        <v>4</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>1</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
+      <c r="U37" s="1">
+        <v>0</v>
+      </c>
+      <c r="V37" s="1">
+        <v>0</v>
+      </c>
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
+      <c r="A38" s="1">
+        <v>5011</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="0"/>
+        <v>5011</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>50</v>
+      </c>
+      <c r="H38" s="1">
+        <v>4</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1">
+        <v>0</v>
+      </c>
+      <c r="W38" s="1">
+        <v>0</v>
+      </c>
+      <c r="X38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
+      <c r="A39" s="1">
+        <v>5012</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="0"/>
+        <v>5012</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>50</v>
+      </c>
+      <c r="H39" s="1">
+        <v>4</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>1</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0</v>
+      </c>
+      <c r="U39" s="1">
+        <v>0</v>
+      </c>
+      <c r="V39" s="1">
+        <v>0</v>
+      </c>
+      <c r="W39" s="1">
+        <v>0</v>
+      </c>
+      <c r="X39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
+      <c r="A40" s="1">
+        <v>5013</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="0"/>
+        <v>5013</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>50</v>
+      </c>
+      <c r="H40" s="1">
+        <v>4</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>1</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0</v>
+      </c>
+      <c r="R40" s="1">
+        <v>0</v>
+      </c>
+      <c r="S40" s="1">
+        <v>0</v>
+      </c>
+      <c r="T40" s="1">
+        <v>0</v>
+      </c>
+      <c r="U40" s="1">
+        <v>0</v>
+      </c>
+      <c r="V40" s="1">
+        <v>0</v>
+      </c>
+      <c r="W40" s="1">
+        <v>0</v>
+      </c>
+      <c r="X40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
+      <c r="A41" s="1">
+        <v>5014</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="0"/>
+        <v>5014</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>50</v>
+      </c>
+      <c r="H41" s="1">
+        <v>4</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>0</v>
+      </c>
+      <c r="R41" s="1">
+        <v>0</v>
+      </c>
+      <c r="S41" s="1">
+        <v>0</v>
+      </c>
+      <c r="T41" s="1">
+        <v>0</v>
+      </c>
+      <c r="U41" s="1">
+        <v>0</v>
+      </c>
+      <c r="V41" s="1">
+        <v>0</v>
+      </c>
+      <c r="W41" s="1">
+        <v>0</v>
+      </c>
+      <c r="X41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
+      <c r="A42" s="1">
+        <v>5015</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="0"/>
+        <v>5015</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>60</v>
+      </c>
+      <c r="H42">
+        <v>4</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>10</v>
+      </c>
+      <c r="T42">
+        <v>10</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/excel/s_skill.xlsx
+++ b/excel/s_skill.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="skill" sheetId="1" r:id="rId1"/>
+    <sheet name="skillConfig" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -2114,7 +2114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
   <si>
     <t>技能ID</t>
   </si>
@@ -2375,6 +2375,26 @@
   </si>
   <si>
     <t>HateFactor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffId:66;Target:1,BuffId:68;Target:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffId:69;Target:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffId:70;Target:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffId:71;Target:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffId:72;Target:0,BuffId:74;Target:0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2750,15 +2770,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y42"/>
+  <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F42"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
@@ -2779,7 +2799,7 @@
     <col min="22" max="22" width="19.375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13.875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="29.75" customWidth="1"/>
+    <col min="25" max="25" width="41.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -3015,13 +3035,13 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4">
-        <v>1001</v>
+        <v>1011</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -3086,19 +3106,19 @@
       <c r="X4">
         <v>0</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y4" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5">
-        <v>2001</v>
+        <v>1021</v>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>2</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3169,13 +3189,13 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6">
-        <v>3001</v>
+        <v>1031</v>
       </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>3</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3246,13 +3266,13 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7">
-        <v>4001</v>
+        <v>1041</v>
       </c>
       <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>4</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3323,13 +3343,13 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8">
-        <v>1011</v>
+        <v>1051</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -3353,13 +3373,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -3400,13 +3420,13 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9">
-        <v>1021</v>
+        <v>1061</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -3430,13 +3450,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -3477,13 +3497,13 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10">
-        <v>1031</v>
+        <v>1071</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -3516,13 +3536,13 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -3554,13 +3574,13 @@
     </row>
     <row r="11" spans="1:25">
       <c r="A11">
-        <v>1041</v>
+        <v>1081</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -3593,13 +3613,13 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -3631,13 +3651,13 @@
     </row>
     <row r="12" spans="1:25">
       <c r="A12">
-        <v>1051</v>
+        <v>1091</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -3661,13 +3681,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -3682,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S12">
         <v>500</v>
@@ -3708,13 +3728,13 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13">
-        <v>1061</v>
+        <v>1101</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -3738,13 +3758,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -3774,7 +3794,7 @@
         <v>300</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13">
         <v>0</v>
@@ -3785,13 +3805,13 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14">
-        <v>1071</v>
+        <v>1111</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -3824,13 +3844,13 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -3851,10 +3871,10 @@
         <v>300</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>48</v>
@@ -3862,13 +3882,13 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15">
-        <v>1081</v>
+        <v>1121</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -3901,13 +3921,13 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -3928,10 +3948,10 @@
         <v>300</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>48</v>
@@ -3939,13 +3959,13 @@
     </row>
     <row r="16" spans="1:25">
       <c r="A16">
-        <v>1091</v>
+        <v>1131</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -3990,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S16">
         <v>500</v>
@@ -4011,18 +4031,18 @@
         <v>0</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17">
-        <v>1101</v>
+        <v>1141</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -4082,24 +4102,24 @@
         <v>300</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17">
         <v>0</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18">
-        <v>1111</v>
+        <v>1151</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -4141,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -4159,10 +4179,10 @@
         <v>300</v>
       </c>
       <c r="W18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>48</v>
@@ -4170,13 +4190,13 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19">
-        <v>1121</v>
+        <v>1161</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -4236,24 +4256,24 @@
         <v>300</v>
       </c>
       <c r="W19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20">
-        <v>1131</v>
+        <v>1171</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -4319,18 +4339,18 @@
         <v>0</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21">
-        <v>1141</v>
+        <v>1181</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -4396,18 +4416,18 @@
         <v>0</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22">
-        <v>1151</v>
+        <v>1191</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -4473,18 +4493,18 @@
         <v>0</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23">
-        <v>1161</v>
+        <v>5000</v>
       </c>
       <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5000</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -4496,13 +4516,13 @@
         <v>1</v>
       </c>
       <c r="G23" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H23">
         <v>4</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -4510,294 +4530,294 @@
       <c r="K23">
         <v>1</v>
       </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
         <v>0</v>
       </c>
       <c r="S23">
-        <v>500</v>
-      </c>
-      <c r="T23">
         <v>10</v>
       </c>
+      <c r="T23" s="1">
+        <v>10</v>
+      </c>
       <c r="U23">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
-      <c r="X23">
+      <c r="X23" s="1">
         <v>0</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24">
-        <v>1171</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>17</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
+        <v>5001</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5001</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
         <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
       </c>
       <c r="G24" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H24">
         <v>4</v>
       </c>
       <c r="I24">
-        <v>3</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>500</v>
-      </c>
-      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1">
         <v>10</v>
       </c>
-      <c r="U24">
-        <v>400</v>
-      </c>
-      <c r="V24">
-        <v>300</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
+      <c r="T24" s="1">
+        <v>10</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
         <v>0</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25">
-        <v>1181</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>18</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
+        <v>5002</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>5002</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
         <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
       </c>
       <c r="G25" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H25">
         <v>4</v>
       </c>
       <c r="I25">
-        <v>3</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>500</v>
-      </c>
-      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1">
         <v>10</v>
       </c>
-      <c r="U25">
-        <v>400</v>
-      </c>
-      <c r="V25">
-        <v>300</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
+      <c r="T25" s="1">
+        <v>10</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1">
         <v>0</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:25">
-      <c r="A26">
-        <v>1191</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>19</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
+      <c r="A26" s="1">
+        <v>5003</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>5003</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
         <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
       </c>
       <c r="G26" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H26">
         <v>4</v>
       </c>
       <c r="I26">
-        <v>3</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>31</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>500</v>
-      </c>
-      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0</v>
+      </c>
+      <c r="S26" s="1">
         <v>10</v>
       </c>
-      <c r="U26">
-        <v>400</v>
-      </c>
-      <c r="V26">
-        <v>300</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
+      <c r="T26" s="1">
+        <v>10</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1">
         <v>0</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:25">
-      <c r="A27">
-        <v>5000</v>
-      </c>
-      <c r="B27">
+      <c r="A27" s="1">
+        <v>5004</v>
+      </c>
+      <c r="B27" s="1">
         <v>0</v>
       </c>
       <c r="C27" s="1">
-        <v>5000</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
+        <v>5004</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
         <v>0</v>
       </c>
       <c r="F27" s="1">
@@ -4807,15 +4827,15 @@
         <v>50</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
         <v>1</v>
       </c>
       <c r="L27" s="1">
@@ -4839,37 +4859,37 @@
       <c r="R27" s="1">
         <v>0</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="1">
         <v>10</v>
       </c>
       <c r="T27" s="1">
         <v>10</v>
       </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
+      <c r="U27" s="1">
+        <v>0</v>
+      </c>
+      <c r="V27" s="1">
+        <v>0</v>
+      </c>
+      <c r="W27" s="1">
         <v>0</v>
       </c>
       <c r="X27" s="1">
         <v>0</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:25">
-      <c r="A28">
-        <v>5001</v>
+      <c r="A28" s="1">
+        <v>5005</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
       </c>
       <c r="C28" s="1">
-        <v>5001</v>
+        <v>5005</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -4935,18 +4955,18 @@
         <v>0</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:25">
-      <c r="A29">
-        <v>5002</v>
+      <c r="A29" s="1">
+        <v>5006</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
       </c>
       <c r="C29" s="1">
-        <v>5002</v>
+        <v>5006</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -5012,18 +5032,18 @@
         <v>0</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="1">
-        <v>5003</v>
+        <v>5007</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
       </c>
       <c r="C30" s="1">
-        <v>5003</v>
+        <v>5007</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -5089,18 +5109,18 @@
         <v>0</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="1">
-        <v>5004</v>
+        <v>5008</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
       </c>
       <c r="C31" s="1">
-        <v>5004</v>
+        <v>5008</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -5115,7 +5135,7 @@
         <v>50</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -5166,95 +5186,97 @@
         <v>0</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:25">
-      <c r="A32" s="1">
-        <v>5005</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0</v>
-      </c>
-      <c r="C32" s="1">
-        <v>5005</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="A32">
+        <v>5009</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <f>A32</f>
+        <v>5009</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
         <v>0</v>
       </c>
       <c r="F32" s="1">
         <v>1</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32">
         <v>50</v>
       </c>
       <c r="H32">
         <v>4</v>
       </c>
       <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0</v>
-      </c>
-      <c r="K32" s="1">
-        <v>1</v>
-      </c>
-      <c r="L32" s="1">
-        <v>0</v>
-      </c>
-      <c r="M32" s="1">
-        <v>0</v>
-      </c>
-      <c r="N32" s="1">
-        <v>0</v>
-      </c>
-      <c r="O32" s="1">
-        <v>0</v>
-      </c>
-      <c r="P32" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>0</v>
-      </c>
-      <c r="R32" s="1">
-        <v>0</v>
-      </c>
-      <c r="S32" s="1">
-        <v>10</v>
-      </c>
-      <c r="T32" s="1">
-        <v>10</v>
-      </c>
-      <c r="U32" s="1">
-        <v>0</v>
-      </c>
-      <c r="V32" s="1">
-        <v>0</v>
-      </c>
-      <c r="W32" s="1">
-        <v>0</v>
-      </c>
-      <c r="X32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
         <v>0</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="1">
-        <v>5006</v>
+        <v>5010</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
       </c>
       <c r="C33" s="1">
-        <v>5006</v>
+        <f t="shared" ref="C33:C38" si="0">A33</f>
+        <v>5010</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -5268,11 +5290,11 @@
       <c r="G33" s="1">
         <v>50</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="1">
         <v>4</v>
       </c>
-      <c r="I33">
-        <v>1</v>
+      <c r="I33" s="1">
+        <v>0</v>
       </c>
       <c r="J33" s="1">
         <v>0</v>
@@ -5302,10 +5324,10 @@
         <v>0</v>
       </c>
       <c r="S33" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T33" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U33" s="1">
         <v>0</v>
@@ -5320,18 +5342,19 @@
         <v>0</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="1">
-        <v>5007</v>
+        <v>5011</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
       </c>
       <c r="C34" s="1">
-        <v>5007</v>
+        <f t="shared" si="0"/>
+        <v>5011</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
@@ -5345,11 +5368,11 @@
       <c r="G34" s="1">
         <v>50</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="1">
         <v>4</v>
       </c>
-      <c r="I34">
-        <v>1</v>
+      <c r="I34" s="1">
+        <v>0</v>
       </c>
       <c r="J34" s="1">
         <v>0</v>
@@ -5379,10 +5402,10 @@
         <v>0</v>
       </c>
       <c r="S34" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T34" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U34" s="1">
         <v>0</v>
@@ -5397,18 +5420,19 @@
         <v>0</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="1">
-        <v>5008</v>
+        <v>5012</v>
       </c>
       <c r="B35" s="1">
         <v>0</v>
       </c>
       <c r="C35" s="1">
-        <v>5008</v>
+        <f t="shared" si="0"/>
+        <v>5012</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -5422,11 +5446,11 @@
       <c r="G35" s="1">
         <v>50</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="1">
         <v>4</v>
       </c>
-      <c r="I35">
-        <v>1</v>
+      <c r="I35" s="1">
+        <v>0</v>
       </c>
       <c r="J35" s="1">
         <v>0</v>
@@ -5456,10 +5480,10 @@
         <v>0</v>
       </c>
       <c r="S35" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T35" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U35" s="1">
         <v>0</v>
@@ -5474,97 +5498,97 @@
         <v>0</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:25">
-      <c r="A36">
-        <v>5009</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <f>A36</f>
-        <v>5009</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
+      <c r="A36" s="1">
+        <v>5013</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="0"/>
+        <v>5013</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
         <v>0</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="1">
         <v>50</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="1">
         <v>4</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>1</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
+        <v>0</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0</v>
+      </c>
+      <c r="U36" s="1">
+        <v>0</v>
+      </c>
+      <c r="V36" s="1">
+        <v>0</v>
+      </c>
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1">
         <v>0</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="1">
-        <v>5010</v>
+        <v>5014</v>
       </c>
       <c r="B37" s="1">
         <v>0</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" ref="C37:C42" si="0">A37</f>
-        <v>5010</v>
+        <f t="shared" si="0"/>
+        <v>5014</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
@@ -5630,99 +5654,98 @@
         <v>0</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" s="1">
-        <v>5011</v>
-      </c>
-      <c r="B38" s="1">
+        <v>5015</v>
+      </c>
+      <c r="B38">
         <v>0</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="0"/>
-        <v>5011</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1">
+        <v>5015</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
         <v>0</v>
       </c>
       <c r="F38" s="1">
         <v>1</v>
       </c>
-      <c r="G38" s="1">
-        <v>50</v>
-      </c>
-      <c r="H38" s="1">
+      <c r="G38">
+        <v>60</v>
+      </c>
+      <c r="H38">
         <v>4</v>
       </c>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
-      <c r="J38" s="1">
-        <v>0</v>
-      </c>
-      <c r="K38" s="1">
-        <v>1</v>
-      </c>
-      <c r="L38" s="1">
-        <v>0</v>
-      </c>
-      <c r="M38" s="1">
-        <v>0</v>
-      </c>
-      <c r="N38" s="1">
-        <v>0</v>
-      </c>
-      <c r="O38" s="1">
-        <v>0</v>
-      </c>
-      <c r="P38" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="1">
-        <v>0</v>
-      </c>
-      <c r="R38" s="1">
-        <v>0</v>
-      </c>
-      <c r="S38" s="1">
-        <v>0</v>
-      </c>
-      <c r="T38" s="1">
-        <v>0</v>
-      </c>
-      <c r="U38" s="1">
-        <v>0</v>
-      </c>
-      <c r="V38" s="1">
-        <v>0</v>
-      </c>
-      <c r="W38" s="1">
-        <v>0</v>
-      </c>
-      <c r="X38" s="1">
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>10</v>
+      </c>
+      <c r="T38">
+        <v>10</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
         <v>0</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="1">
-        <v>5012</v>
-      </c>
-      <c r="B39" s="1">
-        <v>0</v>
-      </c>
-      <c r="C39" s="1">
-        <f t="shared" si="0"/>
-        <v>5012</v>
-      </c>
-      <c r="D39" s="1">
+        <v>3001</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" s="1">
@@ -5731,230 +5754,227 @@
       <c r="F39" s="1">
         <v>1</v>
       </c>
-      <c r="G39" s="1">
-        <v>50</v>
-      </c>
-      <c r="H39" s="1">
+      <c r="G39">
+        <v>100</v>
+      </c>
+      <c r="H39">
         <v>4</v>
       </c>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
-      <c r="J39" s="1">
-        <v>0</v>
-      </c>
-      <c r="K39" s="1">
-        <v>1</v>
-      </c>
-      <c r="L39" s="1">
-        <v>0</v>
-      </c>
-      <c r="M39" s="1">
-        <v>0</v>
-      </c>
-      <c r="N39" s="1">
-        <v>0</v>
-      </c>
-      <c r="O39" s="1">
-        <v>0</v>
-      </c>
-      <c r="P39" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>0</v>
-      </c>
-      <c r="R39" s="1">
-        <v>0</v>
-      </c>
-      <c r="S39" s="1">
-        <v>0</v>
-      </c>
-      <c r="T39" s="1">
-        <v>0</v>
-      </c>
-      <c r="U39" s="1">
-        <v>0</v>
-      </c>
-      <c r="V39" s="1">
-        <v>0</v>
-      </c>
-      <c r="W39" s="1">
-        <v>0</v>
-      </c>
-      <c r="X39" s="1">
+      <c r="I39">
+        <v>6</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>10</v>
+      </c>
+      <c r="T39">
+        <v>10</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
         <v>0</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:25">
-      <c r="A40" s="1">
-        <v>5013</v>
-      </c>
-      <c r="B40" s="1">
-        <v>0</v>
-      </c>
-      <c r="C40" s="1">
-        <f t="shared" si="0"/>
-        <v>5013</v>
-      </c>
-      <c r="D40" s="1">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1">
+      <c r="A40">
+        <v>1001</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
         <v>0</v>
       </c>
       <c r="F40" s="1">
         <v>1</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40">
         <v>50</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40">
         <v>4</v>
       </c>
-      <c r="I40" s="1">
-        <v>0</v>
-      </c>
-      <c r="J40" s="1">
-        <v>0</v>
-      </c>
-      <c r="K40" s="1">
-        <v>1</v>
-      </c>
-      <c r="L40" s="1">
-        <v>0</v>
-      </c>
-      <c r="M40" s="1">
-        <v>0</v>
-      </c>
-      <c r="N40" s="1">
-        <v>0</v>
-      </c>
-      <c r="O40" s="1">
-        <v>0</v>
-      </c>
-      <c r="P40" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="1">
-        <v>0</v>
-      </c>
-      <c r="R40" s="1">
-        <v>0</v>
-      </c>
-      <c r="S40" s="1">
-        <v>0</v>
-      </c>
-      <c r="T40" s="1">
-        <v>0</v>
-      </c>
-      <c r="U40" s="1">
-        <v>0</v>
-      </c>
-      <c r="V40" s="1">
-        <v>0</v>
-      </c>
-      <c r="W40" s="1">
-        <v>0</v>
-      </c>
-      <c r="X40" s="1">
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>10</v>
+      </c>
+      <c r="T40">
+        <v>10</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
         <v>0</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:25">
-      <c r="A41" s="1">
-        <v>5014</v>
-      </c>
-      <c r="B41" s="1">
-        <v>0</v>
-      </c>
-      <c r="C41" s="1">
-        <f t="shared" si="0"/>
-        <v>5014</v>
-      </c>
-      <c r="D41" s="1">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1">
+      <c r="A41">
+        <v>2001</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
         <v>0</v>
       </c>
       <c r="F41" s="1">
         <v>1</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41">
         <v>50</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41">
         <v>4</v>
       </c>
-      <c r="I41" s="1">
-        <v>0</v>
-      </c>
-      <c r="J41" s="1">
-        <v>0</v>
-      </c>
-      <c r="K41" s="1">
-        <v>1</v>
-      </c>
-      <c r="L41" s="1">
-        <v>0</v>
-      </c>
-      <c r="M41" s="1">
-        <v>0</v>
-      </c>
-      <c r="N41" s="1">
-        <v>0</v>
-      </c>
-      <c r="O41" s="1">
-        <v>0</v>
-      </c>
-      <c r="P41" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="1">
-        <v>0</v>
-      </c>
-      <c r="R41" s="1">
-        <v>0</v>
-      </c>
-      <c r="S41" s="1">
-        <v>0</v>
-      </c>
-      <c r="T41" s="1">
-        <v>0</v>
-      </c>
-      <c r="U41" s="1">
-        <v>0</v>
-      </c>
-      <c r="V41" s="1">
-        <v>0</v>
-      </c>
-      <c r="W41" s="1">
-        <v>0</v>
-      </c>
-      <c r="X41" s="1">
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>200</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>10</v>
+      </c>
+      <c r="T41">
+        <v>10</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
         <v>0</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:25">
-      <c r="A42" s="1">
-        <v>5015</v>
+      <c r="A42">
+        <v>4001</v>
       </c>
       <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42" s="1">
-        <f t="shared" si="0"/>
-        <v>5015</v>
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -5966,25 +5986,25 @@
         <v>1</v>
       </c>
       <c r="G42">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H42">
         <v>4</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -6014,13 +6034,321 @@
         <v>0</v>
       </c>
       <c r="W42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X42">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>71</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
+      <c r="A43">
+        <v>10001</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>100</v>
+      </c>
+      <c r="H43">
+        <v>4</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>10</v>
+      </c>
+      <c r="T43">
+        <v>10</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
+      <c r="A44">
+        <v>10011</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>100</v>
+      </c>
+      <c r="H44">
+        <v>4</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
+      <c r="A45">
+        <v>10021</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>100</v>
+      </c>
+      <c r="H45">
+        <v>4</v>
+      </c>
+      <c r="I45">
+        <v>5</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>50</v>
+      </c>
+      <c r="T45">
+        <v>50</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
+      <c r="A46">
+        <v>10031</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>100</v>
+      </c>
+      <c r="H46">
+        <v>4</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
